--- a/要求分析/非機能要求一覧（第三反復）.xlsx
+++ b/要求分析/非機能要求一覧（第三反復）.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FE9BA2-0364-4BB3-8DE8-ED587F6E68EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2E1F5B-FF37-4928-A71B-93DC60611B98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1144,8 +1144,8 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2344,6 +2344,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2513,12 +2519,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>
@@ -2528,6 +2528,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1C1027-CEFA-4AD3-8FFD-CE8AA26AEFED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2543,13 +2552,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/要求分析/非機能要求一覧（第三反復）.xlsx
+++ b/要求分析/非機能要求一覧（第三反復）.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2E1F5B-FF37-4928-A71B-93DC60611B98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3725BDD8-FBDD-4449-87F3-B70D9FB80307}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,35 +391,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>データベースを用いて検索時間の短縮</t>
-    <rPh sb="7" eb="8">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>タンシュク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リストの全検索からデータベースに移行</t>
-    <rPh sb="4" eb="5">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>操作の指示や操作の結果を表示する</t>
     <rPh sb="0" eb="2">
       <t>ソウサ</t>
@@ -459,6 +430,32 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データベースを用いてデータの永続化を行う</t>
+    <rPh sb="7" eb="8">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>エイゾクカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リストでの管理からデータベースでの管理に移行</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イコウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1144,8 +1141,8 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1154,7 +1151,7 @@
     <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.25" style="1" customWidth="1"/>
     <col min="6" max="256" width="3.625" style="1"/>
     <col min="257" max="257" width="1.625" style="1" customWidth="1"/>
     <col min="258" max="258" width="5.625" style="1" customWidth="1"/>
@@ -1613,10 +1610,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1650,12 +1647,7 @@
       <c r="C17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="11"/>
@@ -1689,10 +1681,10 @@
         <v>22</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1726,8 +1718,12 @@
       <c r="C25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="11"/>
@@ -2344,12 +2340,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2519,6 +2509,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>
@@ -2528,15 +2524,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1C1027-CEFA-4AD3-8FFD-CE8AA26AEFED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2552,4 +2539,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>